--- a/output_data/atom_report_cleaned.xlsx
+++ b/output_data/atom_report_cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL42"/>
+  <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6865,6 +6865,142 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>15599</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>JAHNAVI KOLASANI</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>9347559040</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11250</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>13-Nov-2025 20:24:29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TRANSACTION IS SUCCESSFUL</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>eleven thousand two hundred fifty</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>100000036600</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>SALESIAN EDUCATION SOCIETY</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>753702</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1234</v>
+      </c>
+      <c r="P43" t="n">
+        <v>11000316561861</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1763044851</v>
+      </c>
+      <c r="R43" t="n">
+        <v>108566739973</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>sale</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>ICICI UPI QR</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>NRNS</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>IFSC0000000</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>MERCHANT</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>kotakschoolvsp@gmail.com</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="AI43" t="n">
+        <v>19295</v>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>263081,264584</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>2037,2044</t>
+        </is>
+      </c>
+      <c r="AL43" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
